--- a/doc/universal-board-test.xlsx
+++ b/doc/universal-board-test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="21555" windowHeight="12120" activeTab="4"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="21555" windowHeight="12120" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="circuit-emu" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="logic-analyzer-result" sheetId="2" r:id="rId3"/>
     <sheet name="universal-board" sheetId="5" r:id="rId4"/>
     <sheet name="board-inter-connect" sheetId="3" r:id="rId5"/>
+    <sheet name="nes-debug" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
@@ -47488,6 +47489,244 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1027" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="18154650" cy="2886075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="角丸四角形吹き出し 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6438900" y="2971800"/>
+          <a:ext cx="1514475" cy="942975"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -29009"/>
+            <a:gd name="adj2" fmla="val -94066"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>push stack</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="角丸四角形吹き出し 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9229725" y="2809875"/>
+          <a:ext cx="1514475" cy="942975"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -29009"/>
+            <a:gd name="adj2" fmla="val -94066"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+            <a:t>fetch reset vector</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+            <a:t>rom /ce</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1" baseline="0"/>
+            <a:t> doesn't set??</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="円/楕円 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8582025" y="1638300"/>
+          <a:ext cx="2905125" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -53840,7 +54079,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="G6:AS68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AQ41" sqref="AQ41"/>
     </sheetView>
   </sheetViews>
@@ -54666,4 +54905,20 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q21" sqref="Q21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/doc/universal-board-test.xlsx
+++ b/doc/universal-board-test.xlsx
@@ -6420,8 +6420,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="762000" y="14517221"/>
-          <a:ext cx="5378824" cy="302558"/>
+          <a:off x="768804" y="14396357"/>
+          <a:ext cx="5510892" cy="299357"/>
           <a:chOff x="762000" y="13077825"/>
           <a:chExt cx="5429250" cy="304800"/>
         </a:xfrm>
@@ -7859,8 +7859,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1479176" y="4084544"/>
-          <a:ext cx="5378824" cy="302559"/>
+          <a:off x="1503589" y="4041321"/>
+          <a:ext cx="5510893" cy="299358"/>
           <a:chOff x="1485900" y="3657600"/>
           <a:chExt cx="5429250" cy="304800"/>
         </a:xfrm>
@@ -9298,8 +9298,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10443882" y="16786412"/>
-          <a:ext cx="4522722" cy="1058956"/>
+          <a:off x="10688411" y="16641536"/>
+          <a:ext cx="4632779" cy="1047750"/>
           <a:chOff x="180975" y="9572625"/>
           <a:chExt cx="4564744" cy="1066800"/>
         </a:xfrm>
@@ -10336,8 +10336,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10443882" y="15424897"/>
-          <a:ext cx="4522722" cy="1058956"/>
+          <a:off x="10688411" y="15294429"/>
+          <a:ext cx="4632779" cy="1047750"/>
           <a:chOff x="180975" y="9572625"/>
           <a:chExt cx="4564744" cy="1066800"/>
         </a:xfrm>
@@ -11142,8 +11142,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9726706" y="6505015"/>
-          <a:ext cx="4532247" cy="1058956"/>
+          <a:off x="9953625" y="6436179"/>
+          <a:ext cx="4642305" cy="1047750"/>
           <a:chOff x="180975" y="9572625"/>
           <a:chExt cx="4574269" cy="1066800"/>
         </a:xfrm>
@@ -11901,8 +11901,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9726706" y="5294779"/>
-          <a:ext cx="4532247" cy="1058956"/>
+          <a:off x="9953625" y="5238750"/>
+          <a:ext cx="4642305" cy="1047750"/>
           <a:chOff x="180975" y="9572625"/>
           <a:chExt cx="4574269" cy="1066800"/>
         </a:xfrm>
@@ -13879,8 +13879,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4885765" y="15272732"/>
-          <a:ext cx="2022130" cy="756397"/>
+          <a:off x="4993821" y="15145465"/>
+          <a:ext cx="2070556" cy="748393"/>
           <a:chOff x="1847850" y="11563350"/>
           <a:chExt cx="2040619" cy="762000"/>
         </a:xfrm>
@@ -14169,8 +14169,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="941294" y="4689662"/>
-          <a:ext cx="2022130" cy="756397"/>
+          <a:off x="952500" y="4640036"/>
+          <a:ext cx="2070556" cy="748393"/>
           <a:chOff x="1847850" y="11563350"/>
           <a:chExt cx="2040619" cy="762000"/>
         </a:xfrm>
@@ -14412,8 +14412,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3810000" y="17090090"/>
-          <a:ext cx="181712" cy="603998"/>
+          <a:off x="3891643" y="16943613"/>
+          <a:ext cx="186114" cy="595994"/>
           <a:chOff x="3662532" y="2893763"/>
           <a:chExt cx="183731" cy="609214"/>
         </a:xfrm>
@@ -14610,8 +14610,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3810000" y="16332574"/>
-          <a:ext cx="181631" cy="605117"/>
+          <a:off x="3891643" y="16192500"/>
+          <a:ext cx="186033" cy="598714"/>
           <a:chOff x="3121090" y="2893763"/>
           <a:chExt cx="183650" cy="609213"/>
         </a:xfrm>
@@ -14756,8 +14756,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3988557" y="17090090"/>
-          <a:ext cx="180031" cy="603998"/>
+          <a:off x="4070200" y="16943613"/>
+          <a:ext cx="188836" cy="595994"/>
           <a:chOff x="3662532" y="2893763"/>
           <a:chExt cx="183731" cy="609214"/>
         </a:xfrm>
@@ -14954,8 +14954,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3988557" y="16332574"/>
-          <a:ext cx="181631" cy="605117"/>
+          <a:off x="4070200" y="16192500"/>
+          <a:ext cx="186033" cy="598714"/>
           <a:chOff x="3121090" y="2893763"/>
           <a:chExt cx="183650" cy="609213"/>
         </a:xfrm>
@@ -15100,8 +15100,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4167851" y="17090090"/>
-          <a:ext cx="180031" cy="603998"/>
+          <a:off x="4253896" y="16943613"/>
+          <a:ext cx="188836" cy="595994"/>
           <a:chOff x="3662532" y="2893763"/>
           <a:chExt cx="183731" cy="609214"/>
         </a:xfrm>
@@ -15298,8 +15298,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4167851" y="16332574"/>
-          <a:ext cx="181631" cy="605117"/>
+          <a:off x="4253896" y="16192500"/>
+          <a:ext cx="186034" cy="598714"/>
           <a:chOff x="3121090" y="2893763"/>
           <a:chExt cx="183650" cy="609213"/>
         </a:xfrm>
@@ -15444,8 +15444,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4347145" y="17090090"/>
-          <a:ext cx="180031" cy="603998"/>
+          <a:off x="4437593" y="16943613"/>
+          <a:ext cx="188836" cy="595994"/>
           <a:chOff x="3662532" y="2893763"/>
           <a:chExt cx="183731" cy="609214"/>
         </a:xfrm>
@@ -15642,8 +15642,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4347145" y="16332574"/>
-          <a:ext cx="181631" cy="605117"/>
+          <a:off x="4437593" y="16192500"/>
+          <a:ext cx="186033" cy="598714"/>
           <a:chOff x="3121090" y="2893763"/>
           <a:chExt cx="183650" cy="609213"/>
         </a:xfrm>
@@ -15788,8 +15788,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4526439" y="17090090"/>
-          <a:ext cx="180032" cy="603998"/>
+          <a:off x="4621289" y="16943613"/>
+          <a:ext cx="188836" cy="595994"/>
           <a:chOff x="3662532" y="2893763"/>
           <a:chExt cx="183731" cy="609214"/>
         </a:xfrm>
@@ -15986,8 +15986,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4526439" y="16332574"/>
-          <a:ext cx="181631" cy="605117"/>
+          <a:off x="4621289" y="16192500"/>
+          <a:ext cx="186034" cy="598714"/>
           <a:chOff x="3121090" y="2893763"/>
           <a:chExt cx="183650" cy="609213"/>
         </a:xfrm>
@@ -16132,8 +16132,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4705733" y="17090090"/>
-          <a:ext cx="180032" cy="603998"/>
+          <a:off x="4804986" y="16943613"/>
+          <a:ext cx="188835" cy="595994"/>
           <a:chOff x="3662532" y="2893763"/>
           <a:chExt cx="183731" cy="609214"/>
         </a:xfrm>
@@ -16330,8 +16330,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4705733" y="16332574"/>
-          <a:ext cx="181632" cy="605117"/>
+          <a:off x="4804986" y="16192500"/>
+          <a:ext cx="186033" cy="598714"/>
           <a:chOff x="3121090" y="2893763"/>
           <a:chExt cx="183650" cy="609213"/>
         </a:xfrm>
@@ -16476,8 +16476,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4885028" y="17090090"/>
-          <a:ext cx="180031" cy="603998"/>
+          <a:off x="4988682" y="16943613"/>
+          <a:ext cx="188836" cy="595994"/>
           <a:chOff x="3662532" y="2893763"/>
           <a:chExt cx="183731" cy="609214"/>
         </a:xfrm>
@@ -16674,8 +16674,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4885028" y="16332574"/>
-          <a:ext cx="181631" cy="605117"/>
+          <a:off x="4988682" y="16192500"/>
+          <a:ext cx="186033" cy="598714"/>
           <a:chOff x="3121090" y="2893763"/>
           <a:chExt cx="183650" cy="609213"/>
         </a:xfrm>
@@ -16820,8 +16820,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5064322" y="17090090"/>
-          <a:ext cx="180031" cy="603998"/>
+          <a:off x="5172378" y="16943613"/>
+          <a:ext cx="188836" cy="595994"/>
           <a:chOff x="3662532" y="2893763"/>
           <a:chExt cx="183731" cy="609214"/>
         </a:xfrm>
@@ -17018,8 +17018,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5064322" y="16332574"/>
-          <a:ext cx="181631" cy="605117"/>
+          <a:off x="5172378" y="16192500"/>
+          <a:ext cx="186034" cy="598714"/>
           <a:chOff x="3121090" y="2893763"/>
           <a:chExt cx="183650" cy="609213"/>
         </a:xfrm>
@@ -17164,8 +17164,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5243616" y="17090090"/>
-          <a:ext cx="180031" cy="603998"/>
+          <a:off x="5356075" y="16943613"/>
+          <a:ext cx="188836" cy="595994"/>
           <a:chOff x="3662532" y="2893763"/>
           <a:chExt cx="183731" cy="609214"/>
         </a:xfrm>
@@ -17362,8 +17362,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5243616" y="16332574"/>
-          <a:ext cx="181631" cy="605117"/>
+          <a:off x="5356075" y="16192500"/>
+          <a:ext cx="186033" cy="598714"/>
           <a:chOff x="3121090" y="2893763"/>
           <a:chExt cx="183650" cy="609213"/>
         </a:xfrm>
@@ -17508,8 +17508,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5422910" y="17090090"/>
-          <a:ext cx="180031" cy="603998"/>
+          <a:off x="5539771" y="16943613"/>
+          <a:ext cx="188836" cy="595994"/>
           <a:chOff x="3662532" y="2893763"/>
           <a:chExt cx="183731" cy="609214"/>
         </a:xfrm>
@@ -17706,8 +17706,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5422910" y="16332574"/>
-          <a:ext cx="181631" cy="605117"/>
+          <a:off x="5539771" y="16192500"/>
+          <a:ext cx="186034" cy="598714"/>
           <a:chOff x="3121090" y="2893763"/>
           <a:chExt cx="183650" cy="609213"/>
         </a:xfrm>
@@ -17852,8 +17852,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5602204" y="17090090"/>
-          <a:ext cx="180031" cy="603998"/>
+          <a:off x="5723468" y="16943613"/>
+          <a:ext cx="188836" cy="595994"/>
           <a:chOff x="3662532" y="2893763"/>
           <a:chExt cx="183731" cy="609214"/>
         </a:xfrm>
@@ -18050,8 +18050,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5602204" y="16332574"/>
-          <a:ext cx="181631" cy="605117"/>
+          <a:off x="5723468" y="16192500"/>
+          <a:ext cx="186033" cy="598714"/>
           <a:chOff x="3121090" y="2893763"/>
           <a:chExt cx="183650" cy="609213"/>
         </a:xfrm>
@@ -18196,8 +18196,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5782235" y="17090090"/>
-          <a:ext cx="181712" cy="603998"/>
+          <a:off x="5912304" y="16943613"/>
+          <a:ext cx="186114" cy="595994"/>
           <a:chOff x="3662532" y="2893763"/>
           <a:chExt cx="183731" cy="609214"/>
         </a:xfrm>
@@ -18394,8 +18394,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5782235" y="16332574"/>
-          <a:ext cx="181631" cy="605117"/>
+          <a:off x="5912304" y="16192500"/>
+          <a:ext cx="186033" cy="598714"/>
           <a:chOff x="3121090" y="2893763"/>
           <a:chExt cx="183650" cy="609213"/>
         </a:xfrm>
@@ -18540,8 +18540,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5960792" y="17090090"/>
-          <a:ext cx="180032" cy="603998"/>
+          <a:off x="6090861" y="16943613"/>
+          <a:ext cx="188835" cy="595994"/>
           <a:chOff x="3662532" y="2893763"/>
           <a:chExt cx="183731" cy="609214"/>
         </a:xfrm>
@@ -18738,8 +18738,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5960792" y="16332574"/>
-          <a:ext cx="181631" cy="605117"/>
+          <a:off x="6090861" y="16192500"/>
+          <a:ext cx="186033" cy="598714"/>
           <a:chOff x="3121090" y="2893763"/>
           <a:chExt cx="183650" cy="609213"/>
         </a:xfrm>
@@ -18884,8 +18884,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6140086" y="17090090"/>
-          <a:ext cx="180032" cy="603998"/>
+          <a:off x="6274557" y="16943613"/>
+          <a:ext cx="188836" cy="595994"/>
           <a:chOff x="3662532" y="2893763"/>
           <a:chExt cx="183731" cy="609214"/>
         </a:xfrm>
@@ -19082,8 +19082,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6140086" y="16332574"/>
-          <a:ext cx="181632" cy="605117"/>
+          <a:off x="6274557" y="16192500"/>
+          <a:ext cx="186033" cy="598714"/>
           <a:chOff x="3121090" y="2893763"/>
           <a:chExt cx="183650" cy="609213"/>
         </a:xfrm>
@@ -19228,8 +19228,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6319381" y="17090090"/>
-          <a:ext cx="180031" cy="603998"/>
+          <a:off x="6458253" y="16943613"/>
+          <a:ext cx="188836" cy="595994"/>
           <a:chOff x="3662532" y="2893763"/>
           <a:chExt cx="183731" cy="609214"/>
         </a:xfrm>
@@ -19426,8 +19426,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6319381" y="16332574"/>
-          <a:ext cx="181631" cy="605117"/>
+          <a:off x="6458253" y="16192500"/>
+          <a:ext cx="186034" cy="598714"/>
           <a:chOff x="3121090" y="2893763"/>
           <a:chExt cx="183650" cy="609213"/>
         </a:xfrm>
@@ -19572,8 +19572,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6498675" y="17090090"/>
-          <a:ext cx="180031" cy="603998"/>
+          <a:off x="6641950" y="16943613"/>
+          <a:ext cx="188836" cy="595994"/>
           <a:chOff x="3662532" y="2893763"/>
           <a:chExt cx="183731" cy="609214"/>
         </a:xfrm>
@@ -19770,8 +19770,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6498675" y="16332574"/>
-          <a:ext cx="181631" cy="605117"/>
+          <a:off x="6641950" y="16192500"/>
+          <a:ext cx="186033" cy="598714"/>
           <a:chOff x="3121090" y="2893763"/>
           <a:chExt cx="183650" cy="609213"/>
         </a:xfrm>
@@ -19916,8 +19916,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6677969" y="17090090"/>
-          <a:ext cx="180031" cy="603998"/>
+          <a:off x="6825646" y="16943613"/>
+          <a:ext cx="188836" cy="595994"/>
           <a:chOff x="3662532" y="2893763"/>
           <a:chExt cx="183731" cy="609214"/>
         </a:xfrm>
@@ -20114,8 +20114,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6677969" y="16332574"/>
-          <a:ext cx="181631" cy="605117"/>
+          <a:off x="6825646" y="16192500"/>
+          <a:ext cx="186034" cy="598714"/>
           <a:chOff x="3121090" y="2893763"/>
           <a:chExt cx="183650" cy="609213"/>
         </a:xfrm>
@@ -25341,8 +25341,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="941294" y="17090975"/>
-          <a:ext cx="181712" cy="603113"/>
+          <a:off x="952500" y="16942897"/>
+          <a:ext cx="186114" cy="596710"/>
           <a:chOff x="3662532" y="2893763"/>
           <a:chExt cx="183731" cy="609214"/>
         </a:xfrm>
@@ -25539,8 +25539,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="941294" y="16332574"/>
-          <a:ext cx="181631" cy="605117"/>
+          <a:off x="952500" y="16192500"/>
+          <a:ext cx="186033" cy="598714"/>
           <a:chOff x="3121090" y="2893763"/>
           <a:chExt cx="183650" cy="609213"/>
         </a:xfrm>
@@ -25685,8 +25685,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1119851" y="17090975"/>
-          <a:ext cx="180031" cy="603113"/>
+          <a:off x="1131057" y="16942897"/>
+          <a:ext cx="188836" cy="596710"/>
           <a:chOff x="3662532" y="2893763"/>
           <a:chExt cx="183731" cy="609214"/>
         </a:xfrm>
@@ -25883,8 +25883,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1119851" y="16332574"/>
-          <a:ext cx="180451" cy="605117"/>
+          <a:off x="1131057" y="16192500"/>
+          <a:ext cx="189256" cy="598714"/>
           <a:chOff x="3121090" y="2893763"/>
           <a:chExt cx="183650" cy="609213"/>
         </a:xfrm>
@@ -26029,8 +26029,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1299145" y="17090975"/>
-          <a:ext cx="180031" cy="603113"/>
+          <a:off x="1314753" y="16942897"/>
+          <a:ext cx="188836" cy="596710"/>
           <a:chOff x="3662532" y="2893763"/>
           <a:chExt cx="183731" cy="609214"/>
         </a:xfrm>
@@ -26227,8 +26227,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1299145" y="16332574"/>
-          <a:ext cx="180451" cy="605117"/>
+          <a:off x="1314753" y="16192500"/>
+          <a:ext cx="189256" cy="598714"/>
           <a:chOff x="3121090" y="2893763"/>
           <a:chExt cx="183650" cy="609213"/>
         </a:xfrm>
@@ -26373,8 +26373,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1478439" y="17090975"/>
-          <a:ext cx="181210" cy="603113"/>
+          <a:off x="1498450" y="16942897"/>
+          <a:ext cx="185612" cy="596710"/>
           <a:chOff x="3662532" y="2893763"/>
           <a:chExt cx="183731" cy="609214"/>
         </a:xfrm>
@@ -26571,8 +26571,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1478439" y="16332574"/>
-          <a:ext cx="180453" cy="605117"/>
+          <a:off x="1498450" y="16192500"/>
+          <a:ext cx="189257" cy="598714"/>
           <a:chOff x="3121090" y="2893763"/>
           <a:chExt cx="183650" cy="609213"/>
         </a:xfrm>
@@ -26717,8 +26717,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1657733" y="17090975"/>
-          <a:ext cx="180032" cy="603113"/>
+          <a:off x="1682146" y="16942897"/>
+          <a:ext cx="188836" cy="596710"/>
           <a:chOff x="3662532" y="2893763"/>
           <a:chExt cx="183731" cy="609214"/>
         </a:xfrm>
@@ -26915,8 +26915,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1657733" y="16332574"/>
-          <a:ext cx="180452" cy="605117"/>
+          <a:off x="1682146" y="16192500"/>
+          <a:ext cx="189256" cy="598714"/>
           <a:chOff x="3121090" y="2893763"/>
           <a:chExt cx="183650" cy="609213"/>
         </a:xfrm>
@@ -27061,8 +27061,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1837028" y="17090975"/>
-          <a:ext cx="180031" cy="603113"/>
+          <a:off x="1865843" y="16942897"/>
+          <a:ext cx="188836" cy="596710"/>
           <a:chOff x="3662532" y="2893763"/>
           <a:chExt cx="183731" cy="609214"/>
         </a:xfrm>
@@ -27259,8 +27259,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1837028" y="16332574"/>
-          <a:ext cx="180451" cy="605117"/>
+          <a:off x="1865843" y="16192500"/>
+          <a:ext cx="189256" cy="598714"/>
           <a:chOff x="3121090" y="2893763"/>
           <a:chExt cx="183650" cy="609213"/>
         </a:xfrm>
@@ -27405,8 +27405,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2016322" y="17090975"/>
-          <a:ext cx="181210" cy="603113"/>
+          <a:off x="2049539" y="16942897"/>
+          <a:ext cx="185613" cy="596710"/>
           <a:chOff x="3662532" y="2893763"/>
           <a:chExt cx="183731" cy="609214"/>
         </a:xfrm>
@@ -27603,8 +27603,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2016322" y="16332574"/>
-          <a:ext cx="180452" cy="605117"/>
+          <a:off x="2049539" y="16192500"/>
+          <a:ext cx="189257" cy="598714"/>
           <a:chOff x="3121090" y="2893763"/>
           <a:chExt cx="183650" cy="609213"/>
         </a:xfrm>
@@ -27749,8 +27749,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2195616" y="17090975"/>
-          <a:ext cx="180031" cy="603113"/>
+          <a:off x="2233236" y="16942897"/>
+          <a:ext cx="188835" cy="596710"/>
           <a:chOff x="3662532" y="2893763"/>
           <a:chExt cx="183731" cy="609214"/>
         </a:xfrm>
@@ -27947,8 +27947,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2195616" y="16332574"/>
-          <a:ext cx="180451" cy="605117"/>
+          <a:off x="2233236" y="16192500"/>
+          <a:ext cx="189255" cy="598714"/>
           <a:chOff x="3121090" y="2893763"/>
           <a:chExt cx="183650" cy="609213"/>
         </a:xfrm>
@@ -28093,8 +28093,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2374910" y="17090975"/>
-          <a:ext cx="180031" cy="603113"/>
+          <a:off x="2416932" y="16942897"/>
+          <a:ext cx="188836" cy="596710"/>
           <a:chOff x="3662532" y="2893763"/>
           <a:chExt cx="183731" cy="609214"/>
         </a:xfrm>
@@ -28291,8 +28291,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2374910" y="16332574"/>
-          <a:ext cx="180451" cy="605117"/>
+          <a:off x="2416932" y="16192500"/>
+          <a:ext cx="189256" cy="598714"/>
           <a:chOff x="3121090" y="2893763"/>
           <a:chExt cx="183650" cy="609213"/>
         </a:xfrm>
@@ -28437,8 +28437,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2554204" y="17090975"/>
-          <a:ext cx="181210" cy="603113"/>
+          <a:off x="2600628" y="16942897"/>
+          <a:ext cx="185613" cy="596710"/>
           <a:chOff x="3662532" y="2893763"/>
           <a:chExt cx="183731" cy="609214"/>
         </a:xfrm>
@@ -28635,8 +28635,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2554204" y="16332574"/>
-          <a:ext cx="180451" cy="605117"/>
+          <a:off x="2600628" y="16192500"/>
+          <a:ext cx="189256" cy="598714"/>
           <a:chOff x="3121090" y="2893763"/>
           <a:chExt cx="183650" cy="609213"/>
         </a:xfrm>
@@ -28781,8 +28781,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2733498" y="17090975"/>
-          <a:ext cx="180031" cy="603113"/>
+          <a:off x="2784325" y="16942897"/>
+          <a:ext cx="188836" cy="596710"/>
           <a:chOff x="3662532" y="2893763"/>
           <a:chExt cx="183731" cy="609214"/>
         </a:xfrm>
@@ -28979,8 +28979,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2733498" y="16332574"/>
-          <a:ext cx="180451" cy="605117"/>
+          <a:off x="2784325" y="16192500"/>
+          <a:ext cx="189256" cy="598714"/>
           <a:chOff x="3121090" y="2893763"/>
           <a:chExt cx="183650" cy="609213"/>
         </a:xfrm>
@@ -29125,8 +29125,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2913529" y="17090975"/>
-          <a:ext cx="181713" cy="603113"/>
+          <a:off x="2973161" y="16942897"/>
+          <a:ext cx="186114" cy="596710"/>
           <a:chOff x="3662532" y="2893763"/>
           <a:chExt cx="183731" cy="609214"/>
         </a:xfrm>
@@ -29323,8 +29323,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2913529" y="16332574"/>
-          <a:ext cx="181632" cy="605117"/>
+          <a:off x="2973161" y="16192500"/>
+          <a:ext cx="186033" cy="598714"/>
           <a:chOff x="3121090" y="2893763"/>
           <a:chExt cx="183650" cy="609213"/>
         </a:xfrm>
@@ -29469,8 +29469,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3092086" y="17090975"/>
-          <a:ext cx="180032" cy="603113"/>
+          <a:off x="3151718" y="16942897"/>
+          <a:ext cx="188836" cy="596710"/>
           <a:chOff x="3662532" y="2893763"/>
           <a:chExt cx="183731" cy="609214"/>
         </a:xfrm>
@@ -29667,8 +29667,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3092086" y="16332574"/>
-          <a:ext cx="180452" cy="605117"/>
+          <a:off x="3151718" y="16192500"/>
+          <a:ext cx="189256" cy="598714"/>
           <a:chOff x="3121090" y="2893763"/>
           <a:chExt cx="183650" cy="609213"/>
         </a:xfrm>
@@ -29813,8 +29813,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3271381" y="17090975"/>
-          <a:ext cx="180031" cy="603113"/>
+          <a:off x="3335414" y="16942897"/>
+          <a:ext cx="188836" cy="596710"/>
           <a:chOff x="3662532" y="2893763"/>
           <a:chExt cx="183731" cy="609214"/>
         </a:xfrm>
@@ -30011,8 +30011,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3271381" y="16332574"/>
-          <a:ext cx="180452" cy="605117"/>
+          <a:off x="3335414" y="16192500"/>
+          <a:ext cx="189257" cy="598714"/>
           <a:chOff x="3121090" y="2893763"/>
           <a:chExt cx="183650" cy="609213"/>
         </a:xfrm>
@@ -30157,8 +30157,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3450675" y="17090975"/>
-          <a:ext cx="180031" cy="603113"/>
+          <a:off x="3519111" y="16942897"/>
+          <a:ext cx="188835" cy="596710"/>
           <a:chOff x="3662532" y="2893763"/>
           <a:chExt cx="183731" cy="609214"/>
         </a:xfrm>
@@ -30355,8 +30355,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3450675" y="16332574"/>
-          <a:ext cx="180451" cy="605117"/>
+          <a:off x="3519111" y="16192500"/>
+          <a:ext cx="189255" cy="598714"/>
           <a:chOff x="3121090" y="2893763"/>
           <a:chExt cx="183650" cy="609213"/>
         </a:xfrm>
@@ -30501,8 +30501,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3629969" y="17090975"/>
-          <a:ext cx="180031" cy="603113"/>
+          <a:off x="3702807" y="16942897"/>
+          <a:ext cx="188836" cy="596710"/>
           <a:chOff x="3662532" y="2893763"/>
           <a:chExt cx="183731" cy="609214"/>
         </a:xfrm>
@@ -30699,8 +30699,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3629969" y="16332574"/>
-          <a:ext cx="180451" cy="605117"/>
+          <a:off x="3702807" y="16192500"/>
+          <a:ext cx="189256" cy="598714"/>
           <a:chOff x="3121090" y="2893763"/>
           <a:chExt cx="183650" cy="609213"/>
         </a:xfrm>
@@ -30845,8 +30845,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3092824" y="4689662"/>
-          <a:ext cx="2022130" cy="756397"/>
+          <a:off x="3156857" y="4640036"/>
+          <a:ext cx="2070556" cy="748393"/>
           <a:chOff x="1847850" y="11563350"/>
           <a:chExt cx="2040619" cy="762000"/>
         </a:xfrm>
@@ -31088,8 +31088,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2734235" y="15273618"/>
-          <a:ext cx="2022131" cy="756398"/>
+          <a:off x="2789464" y="15144750"/>
+          <a:ext cx="2070556" cy="748394"/>
           <a:chOff x="1847850" y="11563350"/>
           <a:chExt cx="2040619" cy="762000"/>
         </a:xfrm>
@@ -32860,8 +32860,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3272118" y="13912103"/>
-          <a:ext cx="3585883" cy="302559"/>
+          <a:off x="3340554" y="13797643"/>
+          <a:ext cx="3673929" cy="299357"/>
           <a:chOff x="762000" y="13846342"/>
           <a:chExt cx="3609474" cy="300790"/>
         </a:xfrm>
@@ -47724,6 +47724,98 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>457201</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="角丸四角形吹き出し 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9372601" y="4410075"/>
+          <a:ext cx="2981324" cy="1247776"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -29009"/>
+            <a:gd name="adj2" fmla="val -94066"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+            <a:t>#define NMI_VECTOR        0xFFFA</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+            <a:t>#define RESET_VECTOR      0xFFFC</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+            <a:t>#define IRQ_VECTOR        0xFFFE</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+            <a:t>FFE</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1" baseline="0"/>
+            <a:t> is irq vector!!!</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1" baseline="0"/>
+            <a:t>IRQ must be disabled first!!</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -48015,7 +48107,7 @@
   <dimension ref="A2:E213"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -48305,11 +48397,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:CJ115"/>
   <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B110" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AT97" sqref="AT97"/>
+      <selection pane="bottomRight" activeCell="Z113" sqref="Z113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.375" defaultRowHeight="12" customHeight="1"/>
@@ -54080,7 +54172,7 @@
   <dimension ref="G6:AS68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AQ41" sqref="AQ41"/>
+      <selection activeCell="AS6" sqref="AS6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
@@ -54491,7 +54583,7 @@
         <v>42</v>
       </c>
       <c r="AI25" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="7:45" s="2" customFormat="1" ht="93">
@@ -54544,7 +54636,7 @@
         <v>58</v>
       </c>
       <c r="AI26" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="7:45">
@@ -54912,7 +55004,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q21" sqref="Q21"/>
+      <selection activeCell="Q41" sqref="Q41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/doc/universal-board-test.xlsx
+++ b/doc/universal-board-test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="21555" windowHeight="12120" activeTab="5"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="21555" windowHeight="12120" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="circuit-emu" sheetId="1" r:id="rId1"/>
@@ -48398,7 +48398,7 @@
   <dimension ref="A1:CJ115"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B110" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B62" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="Z113" sqref="Z113"/>
@@ -54171,8 +54171,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="G6:AS68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AS6" sqref="AS6"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="AO36" sqref="AO36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
@@ -54655,7 +54655,7 @@
         <v>2</v>
       </c>
       <c r="AP30" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="7:45">
@@ -54663,7 +54663,7 @@
         <v>3</v>
       </c>
       <c r="AP31" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="7:45">
@@ -54674,7 +54674,7 @@
         <v>4</v>
       </c>
       <c r="AP32" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33" spans="7:42">
@@ -54688,7 +54688,7 @@
         <v>5</v>
       </c>
       <c r="AP33" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="7:42">
@@ -54696,7 +54696,7 @@
         <v>6</v>
       </c>
       <c r="AP34" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="35" spans="7:42">
@@ -54704,7 +54704,7 @@
         <v>7</v>
       </c>
       <c r="AP35" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="7:42">
@@ -55003,8 +55003,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q41" sqref="Q41"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K41" sqref="K41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/doc/universal-board-test.xlsx
+++ b/doc/universal-board-test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="21555" windowHeight="12120" activeTab="4"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="21555" windowHeight="12120" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="circuit-emu" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="108">
   <si>
     <t>test 1</t>
     <phoneticPr fontId="1"/>
@@ -387,6 +387,10 @@
   <si>
     <t>irq</t>
     <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>32: Φ N/C</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -47816,6 +47820,117 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1025" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:srcRect b="63148"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="6515100"/>
+          <a:ext cx="18288000" cy="3790950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>285751</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="角丸四角形吹き出し 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5772151" y="9391650"/>
+          <a:ext cx="2981324" cy="704850"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -29009"/>
+            <a:gd name="adj2" fmla="val -94066"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+            <a:t>other</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1" baseline="0"/>
+            <a:t> test rom select comes correctly.</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -54171,8 +54286,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="G6:AS68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="AO36" sqref="AO36"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="AF26" sqref="AF26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
@@ -54533,110 +54648,110 @@
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="7:45" s="2" customFormat="1" ht="94.5">
+    <row r="25" spans="7:45" s="2" customFormat="1" ht="93">
       <c r="R25" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="S25" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="T25" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="U25" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="V25" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="W25" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="X25" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y25" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z25" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA25" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB25" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC25" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD25" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE25" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF25" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AG25" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI25" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="7:45" s="2" customFormat="1" ht="94.5">
+      <c r="R26" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="S25" s="2" t="s">
+      <c r="S26" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="T25" s="2" t="s">
+      <c r="T26" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="U25" s="2" t="s">
+      <c r="U26" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="V25" s="2" t="s">
+      <c r="V26" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="W25" s="2" t="s">
+      <c r="W26" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="X25" s="2" t="s">
+      <c r="X26" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Y25" s="2" t="s">
+      <c r="Y26" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="Z25" s="2" t="s">
+      <c r="Z26" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AA25" s="2" t="s">
+      <c r="AA26" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AB25" s="2" t="s">
+      <c r="AB26" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AC25" s="2" t="s">
+      <c r="AC26" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AD25" s="2" t="s">
+      <c r="AD26" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AE25" s="2" t="s">
+      <c r="AE26" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AF25" s="2" t="s">
+      <c r="AF26" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AG25" s="2" t="s">
+      <c r="AG26" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="AI25" s="2" t="s">
+      <c r="AI26" s="2" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="26" spans="7:45" s="2" customFormat="1" ht="93">
-      <c r="R26" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="S26" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="T26" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="U26" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="V26" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="W26" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="X26" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y26" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z26" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AA26" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AB26" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AC26" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD26" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AE26" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AF26" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG26" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI26" s="2" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="29" spans="7:45">
@@ -55003,8 +55118,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K41" sqref="K41"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N64" sqref="N64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
